--- a/Wyniki 3/Skumulowane/S1.xlsx
+++ b/Wyniki 3/Skumulowane/S1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\Skumulowane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61459661-C08D-4259-BA5F-FAB86C11BC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431512D9-F142-47F5-913A-287F5890036F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 rekord" sheetId="1" r:id="rId1"/>
     <sheet name="100 rekordów" sheetId="2" r:id="rId2"/>
+    <sheet name="500 rekordów" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="220">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -133,6 +134,570 @@
   </si>
   <si>
     <t>1945,6MB</t>
+  </si>
+  <si>
+    <t>Pobieranie 100 rekordów z tabeli Order</t>
+  </si>
+  <si>
+    <t>Pobieranie 500 rekordów z tabeli Order</t>
+  </si>
+  <si>
+    <t>1,29ms</t>
+  </si>
+  <si>
+    <t>46,43ms</t>
+  </si>
+  <si>
+    <t>2,04ms</t>
+  </si>
+  <si>
+    <t>2,27ms</t>
+  </si>
+  <si>
+    <t>2,8GB</t>
+  </si>
+  <si>
+    <t>8,6MB</t>
+  </si>
+  <si>
+    <t>0,979ms</t>
+  </si>
+  <si>
+    <t>149,54ms</t>
+  </si>
+  <si>
+    <t>1,55ms</t>
+  </si>
+  <si>
+    <t>1,75ms</t>
+  </si>
+  <si>
+    <t>28GB</t>
+  </si>
+  <si>
+    <t>87MB</t>
+  </si>
+  <si>
+    <t>1435ms</t>
+  </si>
+  <si>
+    <t>1805ms</t>
+  </si>
+  <si>
+    <t>1670ms</t>
+  </si>
+  <si>
+    <t>1680ms</t>
+  </si>
+  <si>
+    <t>46GB</t>
+  </si>
+  <si>
+    <t>142MB</t>
+  </si>
+  <si>
+    <t>3,05ms</t>
+  </si>
+  <si>
+    <t>170,44ms</t>
+  </si>
+  <si>
+    <t>3,78ms</t>
+  </si>
+  <si>
+    <t>4,35ms</t>
+  </si>
+  <si>
+    <t>14GB</t>
+  </si>
+  <si>
+    <t>2230ms</t>
+  </si>
+  <si>
+    <t>1930ms</t>
+  </si>
+  <si>
+    <t>52GB</t>
+  </si>
+  <si>
+    <t>32MB</t>
+  </si>
+  <si>
+    <t>8605ms</t>
+  </si>
+  <si>
+    <t>10950ms</t>
+  </si>
+  <si>
+    <t>9865ms</t>
+  </si>
+  <si>
+    <t>9905ms</t>
+  </si>
+  <si>
+    <t>58,5GB</t>
+  </si>
+  <si>
+    <t>36MB</t>
+  </si>
+  <si>
+    <t>1,48ms</t>
+  </si>
+  <si>
+    <t>144,63ms</t>
+  </si>
+  <si>
+    <t>2,34ms</t>
+  </si>
+  <si>
+    <t>2,75ms</t>
+  </si>
+  <si>
+    <t>55MB</t>
+  </si>
+  <si>
+    <t>1,16ms</t>
+  </si>
+  <si>
+    <t>146,32ms</t>
+  </si>
+  <si>
+    <t>2,07ms</t>
+  </si>
+  <si>
+    <t>2,66ms</t>
+  </si>
+  <si>
+    <t>550MB</t>
+  </si>
+  <si>
+    <t>477MB</t>
+  </si>
+  <si>
+    <t>77MB</t>
+  </si>
+  <si>
+    <t>482MB</t>
+  </si>
+  <si>
+    <t>383,09ms</t>
+  </si>
+  <si>
+    <t>1520ms</t>
+  </si>
+  <si>
+    <t>566,63ms</t>
+  </si>
+  <si>
+    <t>582,8ms</t>
+  </si>
+  <si>
+    <t>1,6GB</t>
+  </si>
+  <si>
+    <t>1,4GB</t>
+  </si>
+  <si>
+    <t>2,91ms</t>
+  </si>
+  <si>
+    <t>144,06ms</t>
+  </si>
+  <si>
+    <t>3,95ms</t>
+  </si>
+  <si>
+    <t>4,49ms</t>
+  </si>
+  <si>
+    <t>3,2GB</t>
+  </si>
+  <si>
+    <t>51MB</t>
+  </si>
+  <si>
+    <t>1047,5ms</t>
+  </si>
+  <si>
+    <t>1660ms</t>
+  </si>
+  <si>
+    <t>1235ms</t>
+  </si>
+  <si>
+    <t>1260ms</t>
+  </si>
+  <si>
+    <t>16GB</t>
+  </si>
+  <si>
+    <t>250MB</t>
+  </si>
+  <si>
+    <t>6917,5ms</t>
+  </si>
+  <si>
+    <t>12220ms</t>
+  </si>
+  <si>
+    <t>8000ms</t>
+  </si>
+  <si>
+    <t>8118ms</t>
+  </si>
+  <si>
+    <t>253MB</t>
+  </si>
+  <si>
+    <t>26,05ms</t>
+  </si>
+  <si>
+    <t>394,53m</t>
+  </si>
+  <si>
+    <t>41,42ms</t>
+  </si>
+  <si>
+    <t>47,89ms</t>
+  </si>
+  <si>
+    <t>15GB</t>
+  </si>
+  <si>
+    <t>50MB</t>
+  </si>
+  <si>
+    <t>8075ms</t>
+  </si>
+  <si>
+    <t>10760ms</t>
+  </si>
+  <si>
+    <t>9260ms</t>
+  </si>
+  <si>
+    <t>9290ms</t>
+  </si>
+  <si>
+    <t>17GB</t>
+  </si>
+  <si>
+    <t>57MB</t>
+  </si>
+  <si>
+    <t>35745ms</t>
+  </si>
+  <si>
+    <t>40470ms</t>
+  </si>
+  <si>
+    <t>40510ms</t>
+  </si>
+  <si>
+    <t>92549,5ms</t>
+  </si>
+  <si>
+    <t>1,47ms</t>
+  </si>
+  <si>
+    <t>149,3ms</t>
+  </si>
+  <si>
+    <t>2,25ms</t>
+  </si>
+  <si>
+    <t>2,59ms</t>
+  </si>
+  <si>
+    <t>25MB</t>
+  </si>
+  <si>
+    <t>23MB</t>
+  </si>
+  <si>
+    <t>1,25ms</t>
+  </si>
+  <si>
+    <t>156,18ms</t>
+  </si>
+  <si>
+    <t>2,22ms</t>
+  </si>
+  <si>
+    <t>2,92ms</t>
+  </si>
+  <si>
+    <t>232,5MB</t>
+  </si>
+  <si>
+    <t>275,81ms</t>
+  </si>
+  <si>
+    <t>695,06ms</t>
+  </si>
+  <si>
+    <t>350,75ms</t>
+  </si>
+  <si>
+    <t>366,95ms</t>
+  </si>
+  <si>
+    <t>785,25MB</t>
+  </si>
+  <si>
+    <t>730MB</t>
+  </si>
+  <si>
+    <t>1,51ms</t>
+  </si>
+  <si>
+    <t>148,46ms</t>
+  </si>
+  <si>
+    <t>2,08ms</t>
+  </si>
+  <si>
+    <t>2,32ms</t>
+  </si>
+  <si>
+    <t>183MB</t>
+  </si>
+  <si>
+    <t>26MB</t>
+  </si>
+  <si>
+    <t>1,61ms</t>
+  </si>
+  <si>
+    <t>155,76ms</t>
+  </si>
+  <si>
+    <t>2,13ms</t>
+  </si>
+  <si>
+    <t>2,79ms</t>
+  </si>
+  <si>
+    <t>1,8GB</t>
+  </si>
+  <si>
+    <t>263MB</t>
+  </si>
+  <si>
+    <t>2223,33ms</t>
+  </si>
+  <si>
+    <t>3320ms</t>
+  </si>
+  <si>
+    <t>2556,67ms</t>
+  </si>
+  <si>
+    <t>2570ms</t>
+  </si>
+  <si>
+    <t>2,3GB</t>
+  </si>
+  <si>
+    <t>326MB</t>
+  </si>
+  <si>
+    <t>3,73ms</t>
+  </si>
+  <si>
+    <t>159,73ms</t>
+  </si>
+  <si>
+    <t>4,76ms</t>
+  </si>
+  <si>
+    <t>5,33ms</t>
+  </si>
+  <si>
+    <t>820MB</t>
+  </si>
+  <si>
+    <t>1986,67ms</t>
+  </si>
+  <si>
+    <t>2600ms</t>
+  </si>
+  <si>
+    <t>2303ms</t>
+  </si>
+  <si>
+    <t>2316,67ms</t>
+  </si>
+  <si>
+    <t>2,7GB</t>
+  </si>
+  <si>
+    <t>88MB</t>
+  </si>
+  <si>
+    <t>10866,67ms</t>
+  </si>
+  <si>
+    <t>14080ms</t>
+  </si>
+  <si>
+    <t>12443,33ms</t>
+  </si>
+  <si>
+    <t>12683,33ms</t>
+  </si>
+  <si>
+    <t>89MB</t>
+  </si>
+  <si>
+    <t>1,72ms</t>
+  </si>
+  <si>
+    <t>149,25ms</t>
+  </si>
+  <si>
+    <t>2,78ms</t>
+  </si>
+  <si>
+    <t>3,25ms</t>
+  </si>
+  <si>
+    <t>24MB</t>
+  </si>
+  <si>
+    <t>1,27ms</t>
+  </si>
+  <si>
+    <t>145,9ms</t>
+  </si>
+  <si>
+    <t>2,5ms</t>
+  </si>
+  <si>
+    <t>3,38ms</t>
+  </si>
+  <si>
+    <t>258MB</t>
+  </si>
+  <si>
+    <t>240MB</t>
+  </si>
+  <si>
+    <t>417,72ms</t>
+  </si>
+  <si>
+    <t>804,8ms</t>
+  </si>
+  <si>
+    <t>515,18ms</t>
+  </si>
+  <si>
+    <t>527,61ms</t>
+  </si>
+  <si>
+    <t>728MB</t>
+  </si>
+  <si>
+    <t>678MB</t>
+  </si>
+  <si>
+    <t>1,7ms</t>
+  </si>
+  <si>
+    <t>153,14ms</t>
+  </si>
+  <si>
+    <t>2,6ms</t>
+  </si>
+  <si>
+    <t>3,03ms</t>
+  </si>
+  <si>
+    <t>184MB</t>
+  </si>
+  <si>
+    <t>27MB</t>
+  </si>
+  <si>
+    <t>1,46ms</t>
+  </si>
+  <si>
+    <t>144,77ms</t>
+  </si>
+  <si>
+    <t>2,51ms</t>
+  </si>
+  <si>
+    <t>3,55ms</t>
+  </si>
+  <si>
+    <t>270MB</t>
+  </si>
+  <si>
+    <t>1046ms</t>
+  </si>
+  <si>
+    <t>1234ms</t>
+  </si>
+  <si>
+    <t>1246ms</t>
+  </si>
+  <si>
+    <t>3,6GB</t>
+  </si>
+  <si>
+    <t>530MB</t>
+  </si>
+  <si>
+    <t>1,92ms</t>
+  </si>
+  <si>
+    <t>139,79ms</t>
+  </si>
+  <si>
+    <t>2,19ms</t>
+  </si>
+  <si>
+    <t>2,35ms</t>
+  </si>
+  <si>
+    <t>822MB</t>
+  </si>
+  <si>
+    <t>532,11ms</t>
+  </si>
+  <si>
+    <t>794,63ms</t>
+  </si>
+  <si>
+    <t>650,37ms</t>
+  </si>
+  <si>
+    <t>659,23ms</t>
+  </si>
+  <si>
+    <t>5,4GB</t>
+  </si>
+  <si>
+    <t>177MB</t>
+  </si>
+  <si>
+    <t>4796ms</t>
+  </si>
+  <si>
+    <t>5840ms</t>
+  </si>
+  <si>
+    <t>5546ms</t>
+  </si>
+  <si>
+    <t>5572ms</t>
+  </si>
+  <si>
+    <t>5,7GB</t>
+  </si>
+  <si>
+    <t>187MB</t>
   </si>
 </sst>
 </file>
@@ -263,11 +828,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -276,6 +838,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -286,15 +860,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,16 +879,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -597,393 +1163,535 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.08984375" customWidth="1"/>
-    <col min="3" max="3" width="32.453125" customWidth="1"/>
-    <col min="4" max="5" width="12.26953125" customWidth="1"/>
-    <col min="6" max="6" width="19.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.54296875" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="7" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="2:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="5">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
         <v>100</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="6"/>
-      <c r="C6" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="6"/>
-      <c r="C7" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
+      <c r="E7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="6"/>
-      <c r="C9" s="2" t="s">
+      <c r="E8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>83990.67</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="6"/>
-      <c r="C10" s="2" t="s">
+      <c r="E9" s="1">
+        <v>83954</v>
+      </c>
+      <c r="F9" s="1">
+        <v>83955</v>
+      </c>
+      <c r="G9" s="6">
+        <v>83929.4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>87.46</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="6"/>
-      <c r="C11" s="2" t="s">
+      <c r="E10" s="1">
+        <v>87.38</v>
+      </c>
+      <c r="F10" s="1">
+        <v>87.38</v>
+      </c>
+      <c r="G10" s="6">
+        <v>87.41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="6"/>
-      <c r="C12" s="2" t="s">
+      <c r="E11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="7"/>
-      <c r="C13" s="2" t="s">
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="15">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
         <v>1000</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="17"/>
-      <c r="C15" s="3" t="s">
+      <c r="E14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="17"/>
-      <c r="C16" s="3" t="s">
+      <c r="E15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="17"/>
-      <c r="C17" s="3" t="s">
+      <c r="E16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="17"/>
-      <c r="C18" s="3" t="s">
+      <c r="E17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>839744.67</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="17"/>
-      <c r="C19" s="3" t="s">
+      <c r="E18" s="2">
+        <v>839315.5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>864213.5</v>
+      </c>
+      <c r="G18" s="7">
+        <v>839198.6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>873.85</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="17"/>
-      <c r="C20" s="3" t="s">
+      <c r="E19" s="2">
+        <v>873.73</v>
+      </c>
+      <c r="F19" s="2">
+        <v>898.63</v>
+      </c>
+      <c r="G19" s="7">
+        <v>873.61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="3">
-        <v>477</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="17"/>
-      <c r="C21" s="3" t="s">
+      <c r="D20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="3">
-        <v>77</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="18"/>
-      <c r="C22" s="3" t="s">
+      <c r="D21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="1">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="14">
         <v>4000</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="1"/>
-      <c r="C24" s="2" t="s">
+      <c r="E23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
+      <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="1"/>
-      <c r="C25" s="2" t="s">
+      <c r="E24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="1"/>
-      <c r="C26" s="2" t="s">
+      <c r="E25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="14"/>
+      <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B27" s="1"/>
-      <c r="C27" s="2" t="s">
+      <c r="E26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="14"/>
+      <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>3350638.33</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="1"/>
-      <c r="C28" s="2" t="s">
+      <c r="E27" s="1">
+        <v>2430712</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2634959</v>
+      </c>
+      <c r="G27" s="6">
+        <v>2371057</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+      <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>3487.92</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="1"/>
-      <c r="C29" s="2" t="s">
+      <c r="E28" s="1">
+        <v>2529.89</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2742.64</v>
+      </c>
+      <c r="G28" s="6">
+        <v>2468.36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="1"/>
-      <c r="C30" s="2" t="s">
+      <c r="E29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+      <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="1"/>
-      <c r="C31" s="2" t="s">
+      <c r="E30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1000,345 +1708,1080 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8662A7-7105-4BC8-93F7-EBDB8B010F8C}">
   <dimension ref="B3:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.08984375" customWidth="1"/>
-    <col min="3" max="3" width="32.453125" customWidth="1"/>
-    <col min="4" max="5" width="12.26953125" customWidth="1"/>
-    <col min="6" max="6" width="19.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.54296875" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="5">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
         <v>100</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="6"/>
-      <c r="C6" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="6"/>
-      <c r="C7" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="6"/>
-      <c r="C9" s="2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="6"/>
-      <c r="C10" s="2" t="s">
+      <c r="D9" s="1">
+        <v>83972.5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>83799.25</v>
+      </c>
+      <c r="F9" s="1">
+        <v>83953.67</v>
+      </c>
+      <c r="G9" s="6">
+        <v>83932</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="6"/>
-      <c r="C11" s="2" t="s">
+      <c r="D10" s="1">
+        <v>87.41</v>
+      </c>
+      <c r="E10" s="1">
+        <v>87.24</v>
+      </c>
+      <c r="F10" s="1">
+        <v>87.37</v>
+      </c>
+      <c r="G10" s="6">
+        <v>87.37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="6"/>
-      <c r="C12" s="2" t="s">
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="7"/>
-      <c r="C13" s="2" t="s">
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="15">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
         <v>1000</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="17"/>
-      <c r="C15" s="3" t="s">
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="17"/>
-      <c r="C16" s="3" t="s">
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="17"/>
-      <c r="C17" s="3" t="s">
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="17"/>
-      <c r="C18" s="3" t="s">
+      <c r="D17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="17"/>
-      <c r="C19" s="3" t="s">
+      <c r="D18" s="2">
+        <v>839472</v>
+      </c>
+      <c r="E18" s="2">
+        <v>409197.8</v>
+      </c>
+      <c r="F18" s="2">
+        <v>838852</v>
+      </c>
+      <c r="G18" s="7">
+        <v>839034.4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="17"/>
-      <c r="C20" s="3" t="s">
+      <c r="D19" s="2">
+        <v>873.91</v>
+      </c>
+      <c r="E19" s="2">
+        <v>425.99</v>
+      </c>
+      <c r="F19" s="2">
+        <v>873.77</v>
+      </c>
+      <c r="G19" s="7">
+        <v>873.27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="17"/>
-      <c r="C21" s="3" t="s">
+      <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="18"/>
-      <c r="C22" s="3" t="s">
+      <c r="D21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="1">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="14">
         <v>4000</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="1"/>
-      <c r="C24" s="2" t="s">
+      <c r="D23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
+      <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="1"/>
-      <c r="C25" s="2" t="s">
+      <c r="D24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="1"/>
-      <c r="C26" s="2" t="s">
+      <c r="D25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="14"/>
+      <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B27" s="1"/>
-      <c r="C27" s="2" t="s">
+      <c r="D26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="14"/>
+      <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="1"/>
-      <c r="C28" s="2" t="s">
+      <c r="D27" s="1">
+        <v>1378872</v>
+      </c>
+      <c r="E27" s="1">
+        <v>425443.3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1042170.33</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1639046</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+      <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="1"/>
-      <c r="C29" s="2" t="s">
+      <c r="D28" s="1">
+        <v>1435.49</v>
+      </c>
+      <c r="E28" s="1">
+        <v>442.91</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1084.8399999999999</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="1"/>
-      <c r="C30" s="2" t="s">
+      <c r="D29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+      <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="1"/>
-      <c r="C31" s="2" t="s">
+      <c r="D30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="B23:B31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A0A731-FAEB-4B55-9893-D73CD477DF12}">
+  <dimension ref="B3:G34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="7" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="2:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>83826</v>
+      </c>
+      <c r="E9" s="1">
+        <v>81803.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>83759.33</v>
+      </c>
+      <c r="G9" s="6">
+        <v>83915</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>87.29</v>
+      </c>
+      <c r="E10" s="1">
+        <v>85.15</v>
+      </c>
+      <c r="F10" s="1">
+        <v>87.25</v>
+      </c>
+      <c r="G10" s="6">
+        <v>87.39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>314368</v>
+      </c>
+      <c r="E18" s="2">
+        <v>92801</v>
+      </c>
+      <c r="F18" s="2">
+        <v>280775</v>
+      </c>
+      <c r="G18" s="7">
+        <v>548493.6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>327.27999999999997</v>
+      </c>
+      <c r="E19" s="2">
+        <v>96.61</v>
+      </c>
+      <c r="F19" s="2">
+        <v>292.27</v>
+      </c>
+      <c r="G19" s="7">
+        <v>570.92999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="C22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="14">
+        <v>4000</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="1">
+        <v>41120</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="14"/>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="14"/>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>350823</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="1">
+        <v>284216.7</v>
+      </c>
+      <c r="G27" s="6">
+        <v>580370</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1">
+        <v>365.18</v>
+      </c>
+      <c r="E28" s="1">
+        <v>96.31</v>
+      </c>
+      <c r="F28" s="1">
+        <v>292.82</v>
+      </c>
+      <c r="G28" s="6">
+        <v>604.09</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Wyniki 3/Skumulowane/S1.xlsx
+++ b/Wyniki 3/Skumulowane/S1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\Skumulowane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431512D9-F142-47F5-913A-287F5890036F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC9F24E-DE7F-452C-AA05-3597A5527EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1164,7 +1164,7 @@
   <dimension ref="B3:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G31"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2253,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A0A731-FAEB-4B55-9893-D73CD477DF12}">
   <dimension ref="B3:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
